--- a/RPA_0069/Data/Config.xlsx
+++ b/RPA_0069/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vision Y Accion\Documents\UiPath\RPA_0069\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F36FD-4458-42C2-BDDA-5B3089F69420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -160,13 +157,130 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>RPA_0069 - Descarga de Informes Diarios de SAP a Carpeta de Intranet</t>
+  </si>
+  <si>
+    <t>RPAID</t>
+  </si>
+  <si>
+    <t>RPA_0069</t>
+  </si>
+  <si>
+    <t>BerryDate</t>
+  </si>
+  <si>
+    <t>FirstDayBerry</t>
+  </si>
+  <si>
+    <t>BerryArg</t>
+  </si>
+  <si>
+    <t>Berry_E-Mail_Name</t>
+  </si>
+  <si>
+    <t>Berry_E-Mail_From</t>
+  </si>
+  <si>
+    <t>Berry_E-Mail_Server</t>
+  </si>
+  <si>
+    <t>SoporteRPA</t>
+  </si>
+  <si>
+    <t>Berry_E-Mail_Port</t>
+  </si>
+  <si>
+    <t>berryCalendarPath</t>
+  </si>
+  <si>
+    <t>BerryCalendarPath</t>
+  </si>
+  <si>
+    <t>berrySheetName</t>
+  </si>
+  <si>
+    <t>BerryCalendarSheetName</t>
+  </si>
+  <si>
+    <t>TransactionName</t>
+  </si>
+  <si>
+    <t>ZTPP001</t>
+  </si>
+  <si>
+    <t>MailRobotCredential</t>
+  </si>
+  <si>
+    <t>PathMailFile</t>
+  </si>
+  <si>
+    <t>C:\Users\rpalatam\berryglobal.com\CORP IT DIGITALIZACION LATAM - Documentos\RPA FILES\Lista Distribucion Correos RPA.xlsx</t>
+  </si>
+  <si>
+    <t>FileErrorRecipient</t>
+  </si>
+  <si>
+    <t>luisaaranda@berryglobal.com</t>
+  </si>
+  <si>
+    <t>FileErrorSubject</t>
+  </si>
+  <si>
+    <t>FileErrorBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenos días,   El proceso se detuvo al no poder obtener la lista de destinatarios de mail. Por favor, valide antes de volver a ejecutar.  Posibles razones: El archivo no existe o tiene un nombre diferente del esperado. El nombre de la hoja en el archivo es diferente al esperado. Las columnas 'RPA_ID' e 'EMAILS' no existen o fueron cambiadas. No hay una fila para el 'RPA_ID' del proceso. La celda correspondiente a 'EMAILS' esta vacia.  Saludos! </t>
+  </si>
+  <si>
+    <t>SAPLogonPath</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>ConnectionName</t>
+  </si>
+  <si>
+    <t>Qualidade</t>
+  </si>
+  <si>
+    <t>SAP - Produção</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>SAPCredentials</t>
+  </si>
+  <si>
+    <t>SAP_User</t>
+  </si>
+  <si>
+    <t>TRXZTPP001</t>
+  </si>
+  <si>
+    <t>CredentialTRXZTPP001</t>
+  </si>
+  <si>
+    <t>RPA_0069 - Error al obtener destinatarios de mail</t>
+  </si>
+  <si>
+    <t>SAPCredentials_RPA0069</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,6 +299,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -211,16 +332,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,16 +659,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -585,63 +707,153 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1619,16 +1831,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1877,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1673,18 +1885,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +1920,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1953,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,57 +1964,64 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2782,14 +3001,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2800,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2828,17 +3049,99 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="C12" s="5"/>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3830,5 +4133,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RPA_0069/Data/Config.xlsx
+++ b/RPA_0069/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vision Y Accion\Documents\UiPath\RPA_0069\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpalatam\Documents\UiPath\RPA_0069\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F36FD-4458-42C2-BDDA-5B3089F69420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -207,9 +206,6 @@
     <t>TransactionName</t>
   </si>
   <si>
-    <t>ZTPP001</t>
-  </si>
-  <si>
     <t>MailRobotCredential</t>
   </si>
   <si>
@@ -274,12 +270,21 @@
   </si>
   <si>
     <t>SAPCredentials_RPA0069</t>
+  </si>
+  <si>
+    <t>ZTPP001;ZTPP140</t>
+  </si>
+  <si>
+    <t>EREMA01;EREMA05</t>
+  </si>
+  <si>
+    <t>Maquinas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -332,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,6 +348,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -749,105 +755,112 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
+      <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19">
-        <v>400</v>
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21">
+        <v>400</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1820,6 +1833,8 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,11 +1843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2019,11 +2034,18 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2998,7 +3020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/RPA_0069/Data/Config.xlsx
+++ b/RPA_0069/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -279,13 +279,88 @@
   </si>
   <si>
     <t>Maquinas</t>
+  </si>
+  <si>
+    <t>ErrorLogInSapSubject</t>
+  </si>
+  <si>
+    <t>RPA_0069 – Falla en Log In a SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimados/as, 
+Se da aviso de que el Subproceso de Log In a SAP ha sufrido una excepción por credenciales inválidas. Por favor, verificar antes de Volver a ejecutar.
+Saludos. 
+</t>
+  </si>
+  <si>
+    <t>ErrorLogInSapBody</t>
+  </si>
+  <si>
+    <t>RPA_-----– Proceso Finalizado Correctamente.</t>
+  </si>
+  <si>
+    <t>SuccessProcessSubject</t>
+  </si>
+  <si>
+    <t>SuccessProcessBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimados/as, 
+Se da aviso de que el Proceso ------ se ejecutó correctamente.
+Saludos. 
+</t>
+  </si>
+  <si>
+    <t>RPA_0069 – Falla en Acceso a TRX.</t>
+  </si>
+  <si>
+    <t>ErrorAccessTRXSubject</t>
+  </si>
+  <si>
+    <t>ErrorAccessTRXBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimados/as, 
+Se da aviso de que el Subproceso de Descargar Reporte Mapa de Produção ha sufrido una excepción por credenciales de acceso. Por favor, verificar antes de Volver a ejecutar.
+Saludos. 
+</t>
+  </si>
+  <si>
+    <t>ErrorDownloadReportSubject</t>
+  </si>
+  <si>
+    <t>ErrorDownloadReportBody</t>
+  </si>
+  <si>
+    <t>RPA_0069 – Falla en Descarga de Reporte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimados/as, 
+Se da aviso de que el Subproceso de Descargar Reporte Mapa de Produção ha sufrido una excepción en la descarga del archivo. Por favor, verificar antes de Volver a ejecutar.
+Saludos. 
+</t>
+  </si>
+  <si>
+    <t>PathReportZTPP001</t>
+  </si>
+  <si>
+    <t>PathReportZTPP140</t>
+  </si>
+  <si>
+    <t>\\sjbrfps002\PWBI Eremas\ZTPP001\</t>
+  </si>
+  <si>
+    <t>\\sjbrfps002\PWBI Eremas\ZTPP140\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,6 +391,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -334,10 +420,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,8 +437,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1844,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2046,33 +2142,107 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3013,9 +3183,17 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/RPA_0069/Data/Config.xlsx
+++ b/RPA_0069/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -296,9 +296,6 @@
     <t>ErrorLogInSapBody</t>
   </si>
   <si>
-    <t>RPA_-----– Proceso Finalizado Correctamente.</t>
-  </si>
-  <si>
     <t>SuccessProcessSubject</t>
   </si>
   <si>
@@ -351,6 +348,15 @@
   </si>
   <si>
     <t>\\sjbrfps002\PWBI Eremas\ZTPP140\</t>
+  </si>
+  <si>
+    <t>RPA_0069– Proceso Finalizado Correctamente.</t>
+  </si>
+  <si>
+    <t>EmailAddresses</t>
+  </si>
+  <si>
+    <t>renatoregis@berryglobal.com; luisaaranda@berryglobal.com</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -914,10 +920,10 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1940,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2145,96 +2151,107 @@
     <row r="22" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" s="2" t="s">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
+      <c r="B32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-    </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+    </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3186,6 +3203,8 @@
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
